--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -30,7 +30,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.gabriellesantosleandro.com/molic-avc/StructureDefinition/live-alone-pre-stroke-extension</t>
+    <t>https://molic-avc.gabriellesantosleandro.com/StructureDefinition/live-alone-pre-stroke-extension</t>
   </si>
   <si>
     <t>Version</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-15T15:21:17-03:00</t>
+    <t>2023-08-16T00:27:03-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -227,7 +227,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://www.gabriellesantosleandro.com/molic-avc/ValueSet/live-alone-pre-stroke</t>
+    <t>https://molic-avc.gabriellesantosleandro.com/ValueSet/live-alone-pre-stroke</t>
   </si>
   <si>
     <t xml:space="preserve">ext-1
@@ -241,7 +241,7 @@
     <t>living-location-pre-stroke-extension</t>
   </si>
   <si>
-    <t>https://www.gabriellesantosleandro.com/molic-avc/StructureDefinition/living-location-pre-stroke-extension</t>
+    <t>https://molic-avc.gabriellesantosleandro.com/StructureDefinition/living-location-pre-stroke-extension</t>
   </si>
   <si>
     <t>MolicAVC_LivingLocationPreStrokeExtension</t>
@@ -256,13 +256,13 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>https://www.gabriellesantosleandro.com/molic-avc/ValueSet/living-location-pre-stroke-valueset</t>
+    <t>https://molic-avc.gabriellesantosleandro.com/ValueSet/living-location-pre-stroke-valueset</t>
   </si>
   <si>
     <t>molicavc-encounter-profile</t>
   </si>
   <si>
-    <t>https://www.gabriellesantosleandro.com/molic-avc/StructureDefinition/molicavc-encounter-profile</t>
+    <t>https://molic-avc.gabriellesantosleandro.com/StructureDefinition/molicavc-encounter-profile</t>
   </si>
   <si>
     <t>MolicAVC_EncounterProfile</t>
@@ -1284,7 +1284,7 @@
     <t>molicavc-ethnicity-extension</t>
   </si>
   <si>
-    <t>https://www.gabriellesantosleandro.com/molic-avc/StructureDefinition/molicavc-ethnicity-extension</t>
+    <t>https://molic-avc.gabriellesantosleandro.com/StructureDefinition/molicavc-ethnicity-extension</t>
   </si>
   <si>
     <t>MolicAVC_EthnicityExtension</t>
@@ -1296,13 +1296,13 @@
     <t>Extension to capture the patient's ethnicity which represents their cultural background or heritage. Although optional, ICHOM strongly encourages collecting this inclusive information.</t>
   </si>
   <si>
-    <t>https://www.gabriellesantosleandro.com/molic-avc/ValueSet/molicavc-ethnicity-valueset</t>
+    <t>https://molic-avc.gabriellesantosleandro.com/ValueSet/molicavc-ethnicity-valueset</t>
   </si>
   <si>
     <t>molicavc-genderidentity-extension</t>
   </si>
   <si>
-    <t>https://www.gabriellesantosleandro.com/molic-avc/StructureDefinition/molicavc-genderidentity-extension</t>
+    <t>https://molic-avc.gabriellesantosleandro.com/StructureDefinition/molicavc-genderidentity-extension</t>
   </si>
   <si>
     <t>MolicAVC_GenderIdentityExtension</t>
@@ -1327,13 +1327,13 @@
     <t>valueCodeableConcept</t>
   </si>
   <si>
-    <t>https://www.gabriellesantosleandro.com/molic-avc/ValueSet/molicavc-gender-valueset</t>
+    <t>https://molic-avc.gabriellesantosleandro.com/ValueSet/molicavc-gender-valueset</t>
   </si>
   <si>
     <t>molicavc-organization-profile</t>
   </si>
   <si>
-    <t>https://www.gabriellesantosleandro.com/molic-avc/StructureDefinition/molicavc-organization-profile</t>
+    <t>https://molic-avc.gabriellesantosleandro.com/StructureDefinition/molicavc-organization-profile</t>
   </si>
   <si>
     <t>MolicAVC_OrganizationProfile</t>
@@ -1652,7 +1652,7 @@
     <t>Coded representation of the qualification.</t>
   </si>
   <si>
-    <t>https://www.gabriellesantosleandro.com/molic-avc/ValueSet/molicavc-code_healthunit-valueset/</t>
+    <t>https://molic-avc.gabriellesantosleandro.com/ValueSet/molicavc-code_healthunit-valueset/</t>
   </si>
   <si>
     <t>Organization.qualification.period</t>
@@ -1676,7 +1676,7 @@
     <t>molicavc-patient-profile</t>
   </si>
   <si>
-    <t>https://www.gabriellesantosleandro.com/molic-avc/StructureDefinition/molicavc-patient-profile</t>
+    <t>https://molic-avc.gabriellesantosleandro.com/StructureDefinition/molicavc-patient-profile</t>
   </si>
   <si>
     <t>MolicAVC_PatientProfile</t>
@@ -1731,7 +1731,7 @@
     <t>Patient.extension:MolicAVC_GenderIdentityExtension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.gabriellesantosleandro.com/molic-avc/StructureDefinition/molicavc-genderidentity-extension}
+    <t xml:space="preserve">Extension {https://molic-avc.gabriellesantosleandro.com/StructureDefinition/molicavc-genderidentity-extension}
 </t>
   </si>
   <si>
@@ -1741,7 +1741,7 @@
     <t>MolicAVC_SexExtension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.gabriellesantosleandro.com/molic-avc/StructureDefinition/molicavc-sex-extension}
+    <t xml:space="preserve">Extension {https://molic-avc.gabriellesantosleandro.com/StructureDefinition/molicavc-sex-extension}
 </t>
   </si>
   <si>
@@ -1754,7 +1754,7 @@
     <t>Patient.extension:MolicAVC_EthnicityExtension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.gabriellesantosleandro.com/molic-avc/StructureDefinition/molicavc-ethnicity-extension}
+    <t xml:space="preserve">Extension {https://molic-avc.gabriellesantosleandro.com/StructureDefinition/molicavc-ethnicity-extension}
 </t>
   </si>
   <si>
@@ -1764,7 +1764,7 @@
     <t>MolicAVC_RaceExtension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.gabriellesantosleandro.com/molic-avc/StructureDefinition/molicavc-race-extension}
+    <t xml:space="preserve">Extension {https://molic-avc.gabriellesantosleandro.com/StructureDefinition/molicavc-race-extension}
 </t>
   </si>
   <si>
@@ -1777,14 +1777,14 @@
     <t>Patient.extension:MolicAVC_LivingLocationPreStrokeExtension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.gabriellesantosleandro.com/molic-avc/StructureDefinition/living-location-pre-stroke-extension}
+    <t xml:space="preserve">Extension {https://molic-avc.gabriellesantosleandro.com/StructureDefinition/living-location-pre-stroke-extension}
 </t>
   </si>
   <si>
     <t>Patient.extension:MolicAVC_LiveAlonePreStrokeExtension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.gabriellesantosleandro.com/molic-avc/StructureDefinition/live-alone-pre-stroke-extension}
+    <t xml:space="preserve">Extension {https://molic-avc.gabriellesantosleandro.com/StructureDefinition/live-alone-pre-stroke-extension}
 </t>
   </si>
   <si>
@@ -2467,7 +2467,7 @@
     <t>molicavc-practitioner-profile</t>
   </si>
   <si>
-    <t>https://www.gabriellesantosleandro.com/molic-avc/StructureDefinition/molicavc-practitioner-profile</t>
+    <t>https://molic-avc.gabriellesantosleandro.com/StructureDefinition/molicavc-practitioner-profile</t>
   </si>
   <si>
     <t>MolicAVC_PractitionerProfile</t>
@@ -2760,7 +2760,7 @@
     <t>Coded representation of the qualification</t>
   </si>
   <si>
-    <t>http://gabriellesantosleandro.com/ValueSet/molicavc-professionalcode-valueset</t>
+    <t>http://molic-avc.gabriellesantosleandro.com/ValueSet/molicavc-professionalcode-valueset</t>
   </si>
   <si>
     <t>Practitioner.qualification.period</t>
@@ -2818,19 +2818,19 @@
     <t>molicavc-race-extension</t>
   </si>
   <si>
-    <t>https://www.gabriellesantosleandro.com/molic-avc/StructureDefinition/molicavc-race-extension</t>
-  </si>
-  <si>
-    <t>https://www.gabriellesantosleandro.com/molic-avc/ValueSet/molicavc-race</t>
+    <t>https://molic-avc.gabriellesantosleandro.com/StructureDefinition/molicavc-race-extension</t>
+  </si>
+  <si>
+    <t>https://molic-avc.gabriellesantosleandro.com/ValueSet/molicavc-race</t>
   </si>
   <si>
     <t>molicavc-sex-extension</t>
   </si>
   <si>
-    <t>https://www.gabriellesantosleandro.com/molic-avc/StructureDefinition/molicavc-sex-extension</t>
-  </si>
-  <si>
-    <t>https://www.gabriellesantosleandro.com/molic-avc/ValueSet/molicavc-sex-valueset</t>
+    <t>https://molic-avc.gabriellesantosleandro.com/StructureDefinition/molicavc-sex-extension</t>
+  </si>
+  <si>
+    <t>https://molic-avc.gabriellesantosleandro.com/ValueSet/molicavc-sex-valueset</t>
   </si>
 </sst>
 </file>
@@ -4603,7 +4603,7 @@
     <col min="24" max="24" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="120.1484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="89.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="83.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.5" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="40.0390625" customWidth="true" bestFit="true"/>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T00:27:03-03:00</t>
+    <t>2023-08-25T01:55:28-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T16:55:27-03:00</t>
+    <t>2023-10-25T16:05:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T18:47:54-03:00</t>
+    <t>2023-11-21T19:08:35-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
